--- a/Pagos Eventuales realizados/06- JUNIO/03- 27.6.23/Agentes a pagar 27.6.23.xlsx
+++ b/Pagos Eventuales realizados/06- JUNIO/03- 27.6.23/Agentes a pagar 27.6.23.xlsx
@@ -9,18 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="16512" windowHeight="8016"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="16512" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="83">
   <si>
     <t>Nro control</t>
   </si>
@@ -178,9 +177,6 @@
     <t>75247225</t>
   </si>
   <si>
-    <t>EX2022-05762592- -GDESDE-CISB#MS</t>
-  </si>
-  <si>
     <t xml:space="preserve">LLANIVELLI PATRICIA L    </t>
   </si>
   <si>
@@ -190,9 +186,6 @@
     <t>38963465</t>
   </si>
   <si>
-    <t>EX2023-00185131- -GDESDE-CGE</t>
-  </si>
-  <si>
     <t>CASTILLO YESICA ANTONELLA</t>
   </si>
   <si>
@@ -202,9 +195,6 @@
     <t>29047405</t>
   </si>
   <si>
-    <t>EX2023-02248941- -GDESDE-CGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">ROMANO GLADYS FERNANDA   </t>
   </si>
   <si>
@@ -214,9 +204,6 @@
     <t>38989071</t>
   </si>
   <si>
-    <t>EX2023-01296137- -GDESDE-DGNP#CGE</t>
-  </si>
-  <si>
     <t xml:space="preserve">CISNEROS LAURA FERNANDA  </t>
   </si>
   <si>
@@ -226,19 +213,61 @@
     <t>39294895</t>
   </si>
   <si>
-    <t>EX2023-00187428-GDESDE-CGE</t>
-  </si>
-  <si>
-    <t>EX529-0034-2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">SARRIA DIEGO LEONARDO    </t>
   </si>
   <si>
     <t>29049643</t>
   </si>
   <si>
-    <t>EX2023-01314591- -GDESDE-CGE</t>
+    <t xml:space="preserve">CARO DIEGO ALBERTO       </t>
+  </si>
+  <si>
+    <t>38369815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALOMINO LUI MAURO       </t>
+  </si>
+  <si>
+    <t>77325214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FERULLO MARIA EUGENIA    </t>
+  </si>
+  <si>
+    <t>77247945</t>
+  </si>
+  <si>
+    <t>EX-2022-05762592- -GDESDE-CISB#MS</t>
+  </si>
+  <si>
+    <t>EX-2023-01314591- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>EX-2022-06829278- -GDESDE-MS</t>
+  </si>
+  <si>
+    <t>EX-529-0034-2023</t>
+  </si>
+  <si>
+    <t>EX-2023-02248941- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>EX-2023-01296137- -GDESDE-DGNP#CGE</t>
+  </si>
+  <si>
+    <t>EX-2023-00187428-GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>EX-2023-00463368- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>EX-2023-00185131- -GDESDE-CGE</t>
+  </si>
+  <si>
+    <t>EX-2023-03079487-GDESDE-MS</t>
+  </si>
+  <si>
+    <t>PAGADO 04/04/2023</t>
   </si>
 </sst>
 </file>
@@ -278,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +335,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -450,6 +485,29 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,11 +812,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,7 +1024,7 @@
         <v>28736966</v>
       </c>
       <c r="D12" s="39">
-        <v>38889603</v>
+        <v>29006713</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>4</v>
@@ -1090,14 +1148,14 @@
         <v>7</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>13</v>
@@ -1106,7 +1164,7 @@
         <v>27475946</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>4</v>
@@ -1118,83 +1176,83 @@
         <v>7</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
     </row>
-    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17">
-        <v>6</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="18">
-        <f>SUM(F12:F17)</f>
-        <v>360000</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H19" s="22"/>
+    <row r="18" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="42">
+        <v>32684613</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="11">
+        <v>60000</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="17">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="18">
+        <f>SUM(F12:F18)</f>
+        <v>420000</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="39">
-        <v>28736966</v>
-      </c>
-      <c r="D21" s="39">
-        <v>38889603</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6">
-        <v>80000</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="J21" s="23"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="42">
-        <v>90053914</v>
+      <c r="C22" s="39">
+        <v>28736966</v>
+      </c>
+      <c r="D22" s="39">
+        <v>29006713</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>10</v>
@@ -1205,24 +1263,24 @@
       <c r="G22" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>69</v>
+      <c r="H22" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I22" s="14"/>
-      <c r="J22" s="8"/>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="40" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D23" s="42">
+        <v>90053914</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>10</v>
@@ -1233,24 +1291,24 @@
       <c r="G23" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>43</v>
+      <c r="H23" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="42">
-        <v>29047405</v>
+        <v>40</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>10</v>
@@ -1261,24 +1319,24 @@
       <c r="G24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H24" s="21" t="s">
-        <v>60</v>
+      <c r="H24" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D25" s="42">
-        <v>38989071</v>
+        <v>29047405</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>10</v>
@@ -1290,23 +1348,23 @@
         <v>9</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="D26" s="42">
+        <v>38989071</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>10</v>
@@ -1317,24 +1375,24 @@
       <c r="G26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>68</v>
+      <c r="H26" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="8"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="42">
-        <v>27475946</v>
+      <c r="C27" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="D27" s="40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>10</v>
@@ -1346,109 +1404,81 @@
         <v>9</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="17">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="42">
+        <v>27475946</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="6">
+        <v>80000</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="J28" s="8"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="17">
         <v>7</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="F28" s="18">
-        <f>SUM(F21:F27)</f>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="F30" s="18">
+        <f>SUM(F22:F29)</f>
         <v>560000</v>
       </c>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="39">
-        <v>28736966</v>
-      </c>
-      <c r="D31" s="39">
-        <v>38889603</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="19"/>
-    </row>
-    <row r="32" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="43">
-        <v>90053914</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="6">
-        <v>60000</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="19"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>41</v>
+      <c r="C33" s="39">
+        <v>28736966</v>
+      </c>
+      <c r="D33" s="39">
+        <v>29006713</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>11</v>
@@ -1460,23 +1490,23 @@
         <v>35</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="D34" s="42">
+        <v>90053914</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>11</v>
@@ -1487,24 +1517,24 @@
       <c r="G34" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>56</v>
+      <c r="H34" s="21" t="s">
+        <v>75</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D35" s="40" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>11</v>
@@ -1515,24 +1545,24 @@
       <c r="G35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="21" t="s">
-        <v>60</v>
+      <c r="H35" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="19"/>
     </row>
     <row r="36" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>11</v>
@@ -1543,24 +1573,24 @@
       <c r="G36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H36" s="21" t="s">
-        <v>64</v>
+      <c r="H36" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="19"/>
     </row>
     <row r="37" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="40" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>11</v>
@@ -1571,165 +1601,319 @@
       <c r="G37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>68</v>
+      <c r="H37" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="17">
-        <v>7</v>
-      </c>
-      <c r="F38" s="18">
-        <f>SUM(F31:F37)</f>
-        <v>420000</v>
-      </c>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+    <row r="38" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="J38" s="19"/>
+    </row>
+    <row r="39" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="J39" s="19"/>
+    </row>
+    <row r="40" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="42">
+        <v>24346340</v>
+      </c>
+      <c r="D40" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="6">
+        <v>60000</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="J40" s="19"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="17">
+        <v>8</v>
+      </c>
+      <c r="F41" s="18">
+        <f>SUM(F33:F40)</f>
+        <v>480000</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:10" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="55"/>
+      <c r="F42" s="56"/>
+      <c r="H42" s="57"/>
+    </row>
+    <row r="43" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="47">
+        <v>25172356</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="46">
+        <v>80000</v>
+      </c>
+      <c r="G43" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I43" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="52"/>
+    </row>
+    <row r="44" spans="1:10" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="55"/>
+      <c r="F44" s="56"/>
+      <c r="H44" s="57"/>
+    </row>
+    <row r="45" spans="1:10" s="53" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="47">
+        <v>25172356</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="46">
+        <v>60000</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="I45" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="J45" s="54"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="24"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="27">
-        <v>750000</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="29"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="29"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="29"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="29"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="29"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="29"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="35"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F47" s="27">
+        <v>750000</v>
+      </c>
+      <c r="G47" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="H47" s="36"/>
       <c r="I47" s="29"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="35"/>
       <c r="B48" s="27"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
       <c r="E48" s="28"/>
       <c r="F48" s="27"/>
       <c r="G48" s="27"/>
       <c r="H48" s="36"/>
       <c r="I48" s="29"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="30">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="35"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="29"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="35"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="29"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="29"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="29"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="35"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="29"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="35"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="29"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="30">
         <v>1</v>
       </c>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="33">
-        <f>SUM(F41:F48)</f>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="33">
+        <f>SUM(F47:F54)</f>
         <v>750000</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="25"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="25"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
         <v>33</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C62" t="s">
         <v>34</v>
       </c>
     </row>
